--- a/User_Data.xlsx
+++ b/User_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2024-12-27 15:57:55</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ayam, ikan</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['keju']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['bawang']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ayam Goreng Kecap, Nasi Goreng Tuna Kencur, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Sarden sederhana, Oseng iwak klotok</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data.xlsx
+++ b/User_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:44:11</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>telur, sapi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['tahu', 'udang']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['bawang putih']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Telur dadar isi bayam, Tumis kol telur, Telur Dadar ranjauu🌶 #pr_recookmasakanawalanT, Telur dadar ala padang, Balado bakso sapi</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/User_Data.xlsx
+++ b/User_Data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,108 +436,154 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Categories</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Allergens</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ingredients</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Recommendations</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Allergens</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Ingredients</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Recommendations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-27 15:48:04</t>
+          <t>tahu, tempe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ayam, ikan</t>
+          <t>['ikan']</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['keju']</t>
+          <t>['bawang']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['mayo']</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Whole bread tuna pizza, Chilli Tuna Puff Kilat Super Yummy 😙, Sandwich Tuna, Bruchetta Salmon Mayo #BeraniBaking, Tetukeri (telur tuna keju nori) #ketopad_cp_telur</t>
-        </is>
-      </c>
+          <t>Orek tempe basah bumbu ulek, Sayur daun bawang dan tahu saus tiram, Perkedel Tahu Simple, Tumis orek tahu, Sambal tempe</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-12-27 15:57:55</t>
+          <t>ayam, kambing</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ayam, ikan</t>
+          <t>['telur']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['keju']</t>
+          <t>['bawang']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['bawang']</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Ayam Goreng Kecap, Nasi Goreng Tuna Kencur, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Sarden sederhana, Oseng iwak klotok</t>
-        </is>
-      </c>
+          <t>Ayam Goreng Kecap, Menu dinner trio tumis - pokcoy, ayam bawang putih, bawang merah, Nasi Goreng Kambing...ala kebon sirih, Tongseng Kambing #kitaberbagi, Sop kambing bening</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-12-27 22:44:11</t>
+          <t>ayam, tahu</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>telur, sapi</t>
+          <t>['telur']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['tahu', 'udang']</t>
+          <t>['keju']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['bawang putih']</t>
+          <t>Chicken Salad with dressing, Ayam richeese fire wings + saus keju, Perkedel Tahu Simple, Pie Kentang Ayam, Somay Ayam (frozen food)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Telur dadar isi bayam, Tumis kol telur, Telur Dadar ranjauu🌶 #pr_recookmasakanawalanT, Telur dadar ala padang, Balado bakso sapi</t>
+          <t>2024-12-27 22:07:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ayam, kambing</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>['telur']</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['mayonnaise']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Long Lamb Sate, Plao (rice with lamb), Ayam richeese fire wings + saus keju, Chicken Salad with dressing, Chicken BBQ with pineapple</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-12-27 22:09:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ayam, ikan</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>['dummy']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['dummy']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Lele rica rica kemangi gampang sekali, Chilli Tuna Puff Kilat Super Yummy 😙, Pecek Bandeng Wong Banten, Chicken geprek sambel ijo, Soto Ayam</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-12-28 10:29:14</t>
         </is>
       </c>
     </row>

--- a/User_Data.xlsx
+++ b/User_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,6 +587,33 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>kambing, sapi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>['dummy']</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['dummy']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Beef Steak with mac and cheese, Sate Kambing ala Hari Raya, Long Lamb Sate, Plao (rice with lamb), Sate Kambing</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-12-28 10:30:39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
